--- a/biology/Zoologie/Batara_demi-deuil/Batara_demi-deuil.xlsx
+++ b/biology/Zoologie/Batara_demi-deuil/Batara_demi-deuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thamnophilus nigrocinereus
 Le Batara demi-deuil (Thamnophilus nigrocinereus) est une espèce d'oiseaux de la famille des Thamnophilidae.
@@ -512,13 +524,15 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>T. n. cinereoniger Pelzeln, 1868 – centre-est de la Colombie, sud-ouest du Venezuela et Amazonie (bassins du río Meta, amont de l'Orénoque, río Vaupés et rio Negro) ;
 T. n. tschudii Pelzeln, 1868 – aval du rio Madeira ;
 T. n. huberi E. Snethlage, 1907 – aval du rio Tapajós ;
 T. n. nigrocinereus P. L. Sclater, 1855 – embouchure du rio Tapajós, aval de l'Amazone et îlots de l'estuaire ;
-T. n. kulczynskii (Domaniewski &amp; Stolzmann, 1922) – nord-est de la Guyane et extreme nord de l'Amapá[1].</t>
+T. n. kulczynskii (Domaniewski &amp; Stolzmann, 1922) – nord-est de la Guyane et extreme nord de l'Amapá.</t>
         </is>
       </c>
     </row>
